--- a/docassemble_demo/docassemble/demo/data/sources/questions.xlsx
+++ b/docassemble_demo/docassemble/demo/data/sources/questions.xlsx
@@ -1,73 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpyle\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="348">
-  <si>
-    <t xml:space="preserve">interview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">question_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index_num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orig_lang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_lang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orig_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">docassemble.demo:data/questions/questions.yml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8268b7dcfc90a6eea0fc5437c0353a2f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are done for now.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youo are done for now.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02b78d1fd0f4500899a1fb92857964ca</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="351">
+  <si>
+    <t>interview</t>
+  </si>
+  <si>
+    <t>question_id</t>
+  </si>
+  <si>
+    <t>index_num</t>
+  </si>
+  <si>
+    <t>hash</t>
+  </si>
+  <si>
+    <t>orig_lang</t>
+  </si>
+  <si>
+    <t>tr_lang</t>
+  </si>
+  <si>
+    <t>orig_text</t>
+  </si>
+  <si>
+    <t>tr_text</t>
+  </si>
+  <si>
+    <t>docassemble.base:data/questions/basic-questions.yml</t>
+  </si>
+  <si>
+    <t>Question_2</t>
+  </si>
+  <si>
+    <t>8268b7dcfc90a6eea0fc5437c0353a2f</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>You are done for now.</t>
+  </si>
+  <si>
+    <t>Youo are done for now.</t>
+  </si>
+  <si>
+    <t>02b78d1fd0f4500899a1fb92857964ca</t>
   </si>
   <si>
     <t xml:space="preserve">% if 'advocate' in role_needed:
@@ -81,84 +80,84 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b48c5ce4cc519872628848831c04c2a1</t>
+    <t>Question_9</t>
+  </si>
+  <si>
+    <t>b48c5ce4cc519872628848831c04c2a1</t>
   </si>
   <si>
     <t xml:space="preserve">What is ${ x.possessive('date of birth') }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">10803b83a68db8f7e7a33e3b41e184d0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6a177a2b153c0f0a14ac482c833b0c77</t>
+    <t>10803b83a68db8f7e7a33e3b41e184d0</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Question_10</t>
+  </si>
+  <si>
+    <t>6a177a2b153c0f0a14ac482c833b0c77</t>
   </si>
   <si>
     <t xml:space="preserve">What is ${ x.possessive('time zone') }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">45c10605e0a492fbe7a3eac258cd1e81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221ea3cbce10c1e99c45b127561fae32</t>
+    <t>45c10605e0a492fbe7a3eac258cd1e81</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
+  </si>
+  <si>
+    <t>Question_11</t>
+  </si>
+  <si>
+    <t>221ea3cbce10c1e99c45b127561fae32</t>
   </si>
   <si>
     <t xml:space="preserve">What is ${ x.possessive('Social Security Number') }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2dd46776b4cd080c1c2d5ab8a7f46629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social Security Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54ffcced0bbaedf19fcbaa752d3d32a8</t>
+    <t>2dd46776b4cd080c1c2d5ab8a7f46629</t>
+  </si>
+  <si>
+    <t>Social Security Number</t>
+  </si>
+  <si>
+    <t>Question_12</t>
+  </si>
+  <si>
+    <t>54ffcced0bbaedf19fcbaa752d3d32a8</t>
   </si>
   <si>
     <t xml:space="preserve">${ x.is_are_you(capitalize=True) } a defendant in this case?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d07e0a454dd92392736bbd0a0db3ee11</t>
+    <t>Question_13</t>
+  </si>
+  <si>
+    <t>d07e0a454dd92392736bbd0a0db3ee11</t>
   </si>
   <si>
     <t xml:space="preserve">What is ${ x.possessive('marital status') }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77a7010407912a1fe53c56046071915e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instructions for signing your name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1e3e8b6b32a56b580456ce499ba836c1</t>
+    <t>Question_14</t>
+  </si>
+  <si>
+    <t>77a7010407912a1fe53c56046071915e</t>
+  </si>
+  <si>
+    <t>Instructions for signing your name</t>
+  </si>
+  <si>
+    <t>1e3e8b6b32a56b580456ce499ba836c1</t>
   </si>
   <si>
     <t xml:space="preserve">On the next screen, you will see a box in which you can sign your
@@ -168,74 +167,74 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2cf0fe7feb2593ad46953dcde26e7b27</t>
+    <t>Question_15</t>
+  </si>
+  <si>
+    <t>2cf0fe7feb2593ad46953dcde26e7b27</t>
   </si>
   <si>
     <t xml:space="preserve">Sign your name
 </t>
   </si>
   <si>
-    <t xml:space="preserve">38ced924d5964af7f24caae661922170</t>
+    <t>38ced924d5964af7f24caae661922170</t>
   </si>
   <si>
     <t xml:space="preserve">${ x.name }
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85010b4b0c348247c9dfd0b4695b5ee2</t>
+    <t>Question_16</t>
+  </si>
+  <si>
+    <t>85010b4b0c348247c9dfd0b4695b5ee2</t>
   </si>
   <si>
     <t xml:space="preserve">\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eb8a3a727d1830b90b22fbb2a492d969</t>
+    <t>Question_17</t>
+  </si>
+  <si>
+    <t>eb8a3a727d1830b90b22fbb2a492d969</t>
   </si>
   <si>
     <t xml:space="preserve">\_\_\_[Your signature here]\_\_\_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91ccd51ee91e3f535b8dffd69732a878</t>
+    <t>Question_18</t>
+  </si>
+  <si>
+    <t>91ccd51ee91e3f535b8dffd69732a878</t>
   </si>
   <si>
     <t xml:space="preserve">Is this ${ x.possessive('signature') }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">820c02a0f277a7f2f2b13e37cc79fc68</t>
+    <t>820c02a0f277a7f2f2b13e37cc79fc68</t>
   </si>
   <si>
     <t xml:space="preserve">${ x.signature.show() }
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a229f8a527c9dd8eff18f3c9846e94ba</t>
+    <t>Question_20</t>
+  </si>
+  <si>
+    <t>a229f8a527c9dd8eff18f3c9846e94ba</t>
   </si>
   <si>
     <t xml:space="preserve">${ x.is_are_you(capitalize=True) } a citizen of the United States?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fca05a6a5a924694b8813d9ec79d6a36</t>
+    <t>Question_21</t>
+  </si>
+  <si>
+    <t>fca05a6a5a924694b8813d9ec79d6a36</t>
   </si>
   <si>
     <t xml:space="preserve">Your use of this system does not mean that you have a lawyer.  Do
@@ -243,151 +242,146 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Youro use of this system does not mean that you have a lawyer.  Do
-you understand this?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9b039eb2fe44397baf415e8ff0c484a0</t>
+    <t>Question_22</t>
+  </si>
+  <si>
+    <t>9b039eb2fe44397baf415e8ff0c484a0</t>
   </si>
   <si>
     <t xml:space="preserve">What is ${ x.possessive('e-mail address') }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1e884e3078d9978e216a027ecd57fb34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41bf4f717d67ab1c59247d68afcf84c0</t>
+    <t>1e884e3078d9978e216a027ecd57fb34</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Question_23</t>
+  </si>
+  <si>
+    <t>41bf4f717d67ab1c59247d68afcf84c0</t>
   </si>
   <si>
     <t xml:space="preserve">What is ${ x.possessive('gender') }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36c0a53cb4efe96f7ccef4eea146234c</t>
+    <t>Question_24</t>
+  </si>
+  <si>
+    <t>36c0a53cb4efe96f7ccef4eea146234c</t>
   </si>
   <si>
     <t xml:space="preserve">What is ${ x.object_possessive('name') }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1f619dc7ba14cd3010a52075397c5874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${ x.first_name_hint() }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bc910f8bdf70f29374f496f05be0330c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firsto Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d3691d297d95c48ef1a2b7d6523ef3f0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middleo Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a2d5495a3f6ab78c9123e9a2c922d60b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${ x.last_name_hint() }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77587239bf4c54ea493c7033e1dbf636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasto Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56e6ddd1cb6cec596b433440dfb21c17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suffix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2cff390723ac3022b0c8e6e3050bbb0d</t>
+    <t>1f619dc7ba14cd3010a52075397c5874</t>
+  </si>
+  <si>
+    <t>${ x.first_name_hint() }</t>
+  </si>
+  <si>
+    <t>bc910f8bdf70f29374f496f05be0330c</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Firsto Name</t>
+  </si>
+  <si>
+    <t>d3691d297d95c48ef1a2b7d6523ef3f0</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Middleo Name</t>
+  </si>
+  <si>
+    <t>77587239bf4c54ea493c7033e1dbf636</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Lasto Name</t>
+  </si>
+  <si>
+    <t>a2d5495a3f6ab78c9123e9a2c922d60b</t>
+  </si>
+  <si>
+    <t>${ x.last_name_hint() }</t>
+  </si>
+  <si>
+    <t>56e6ddd1cb6cec596b433440dfb21c17</t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <t>Question_25</t>
+  </si>
+  <si>
+    <t>2cff390723ac3022b0c8e6e3050bbb0d</t>
   </si>
   <si>
     <t xml:space="preserve">What is the name of the ${ x[i].object_name() }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b096b9045b464693be2025ceb7fb1661</t>
+    <t>Question_26</t>
+  </si>
+  <si>
+    <t>b096b9045b464693be2025ceb7fb1661</t>
   </si>
   <si>
     <t xml:space="preserve">What is ${ x.possessive(ordinal(i) + " child") }'s name?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">4f096911660dda35c6a04e6ee99ffa03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somebody already mentioned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somebodyo already mentioned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31fd5d30fcd09152092e7f7ae5d07c5a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${ x.name.last }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1a960d3e36ad6b138d2d4bb3f43df4d5</t>
+    <t>4f096911660dda35c6a04e6ee99ffa03</t>
+  </si>
+  <si>
+    <t>Somebody already mentioned</t>
+  </si>
+  <si>
+    <t>Somebodyo already mentioned</t>
+  </si>
+  <si>
+    <t>31fd5d30fcd09152092e7f7ae5d07c5a</t>
+  </si>
+  <si>
+    <t>${ x.name.last }</t>
+  </si>
+  <si>
+    <t>Question_27</t>
+  </si>
+  <si>
+    <t>1a960d3e36ad6b138d2d4bb3f43df4d5</t>
   </si>
   <si>
     <t xml:space="preserve">Are there any ${ x.as_noun(plural=True) }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3ae10a0fe0fc95388a6b393cc08d4b83</t>
+    <t>Question_28</t>
+  </si>
+  <si>
+    <t>3ae10a0fe0fc95388a6b393cc08d4b83</t>
   </si>
   <si>
     <t xml:space="preserve">${ x.do_question('have', capitalize=True) } any children?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cf854ce84b555570a987e43a4336d4d0</t>
+    <t>Question_29</t>
+  </si>
+  <si>
+    <t>cf854ce84b555570a987e43a4336d4d0</t>
   </si>
   <si>
     <t xml:space="preserve">You have told me that there ${ x.does_verb("is") }
@@ -396,10 +390,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">207a06c933a0561fed7135aeac65e405</t>
+    <t>Question_30</t>
+  </si>
+  <si>
+    <t>207a06c933a0561fed7135aeac65e405</t>
   </si>
   <si>
     <t xml:space="preserve">So far, you have told me about
@@ -409,17 +403,17 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5d6fce9ec337f8b2697d03b2732231c2</t>
+    <t>Question_31</t>
+  </si>
+  <si>
+    <t>5d6fce9ec337f8b2697d03b2732231c2</t>
   </si>
   <si>
     <t xml:space="preserve">${ x.is_are_you(capitalize=True) } a plaintiff in this case?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">0e74a90436938c10e9506e91e3e3ae26</t>
+    <t>0e74a90436938c10e9506e91e3e3ae26</t>
   </si>
   <si>
     <t xml:space="preserve">A "plaintiff" is a person who starts a case by filing a lawsuit
@@ -428,10 +422,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34e377cdde1813603adaf1cef7259b50</t>
+    <t>Question_32</t>
+  </si>
+  <si>
+    <t>34e377cdde1813603adaf1cef7259b50</t>
   </si>
   <si>
     <t xml:space="preserve">Where ${ x.do_question('live') } in 
@@ -439,52 +433,52 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">dd7bf230fde8d4836917806aff6a6b27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b89e4cdef90629124a878bcc98078c9e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The apartment, suite, or unit number of the residence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19c562a36aeb455d09534f93b4f5236f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57d056ed0984166336b7879c2af3657f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cityo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46a2a41cc6e552044816a2d04634545d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">963ab0bbea32f1f9d19afb00d08be14d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3452169f6e6ad4c917d6e2ae96aeb3cc</t>
+    <t>dd7bf230fde8d4836917806aff6a6b27</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>b89e4cdef90629124a878bcc98078c9e</t>
+  </si>
+  <si>
+    <t>The apartment, suite, or unit number of the residence.</t>
+  </si>
+  <si>
+    <t>19c562a36aeb455d09534f93b4f5236f</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>57d056ed0984166336b7879c2af3657f</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Cityo</t>
+  </si>
+  <si>
+    <t>46a2a41cc6e552044816a2d04634545d</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>963ab0bbea32f1f9d19afb00d08be14d</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Zipo</t>
+  </si>
+  <si>
+    <t>Question_33</t>
+  </si>
+  <si>
+    <t>3452169f6e6ad4c917d6e2ae96aeb3cc</t>
   </si>
   <si>
     <t xml:space="preserve">In which county is
@@ -493,16 +487,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">e25b163360646e8f71af8a8ee0fad1a3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f83dd92cb7b7ff20ba8054c1e1b9e633</t>
+    <t>e25b163360646e8f71af8a8ee0fad1a3</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Question_35</t>
+  </si>
+  <si>
+    <t>f83dd92cb7b7ff20ba8054c1e1b9e633</t>
   </si>
   <si>
     <t xml:space="preserve">In which county in
@@ -513,93 +507,96 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">7d80e3f722bbf3147c45c4ad1d794427</t>
+    <t>7d80e3f722bbf3147c45c4ad1d794427</t>
   </si>
   <si>
     <t xml:space="preserve">e.g., Springfield County
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">995c6a1aa4517bde13ee14b871370f18</t>
+    <t>Question_37</t>
+  </si>
+  <si>
+    <t>995c6a1aa4517bde13ee14b871370f18</t>
   </si>
   <si>
     <t xml:space="preserve">Are you able to attach or take a picture of ${ x.title }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">465086f50f2db1597e13943dd794de33</t>
+    <t>Question_38</t>
+  </si>
+  <si>
+    <t>465086f50f2db1597e13943dd794de33</t>
   </si>
   <si>
     <t xml:space="preserve">Please attach or take a picture of ${ x.title }.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">358f9fb3a700ab217ef86e2318d8bfad</t>
+    <t>358f9fb3a700ab217ef86e2318d8bfad</t>
   </si>
   <si>
     <t xml:space="preserve">${ capitalize(x.title) }
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c901a17a02d0df4793bd4e4e574e2fce</t>
+    <t>Question_39</t>
+  </si>
+  <si>
+    <t>c901a17a02d0df4793bd4e4e574e2fce</t>
   </si>
   <si>
     <t xml:space="preserve">In what country ${ x.do_question('live') }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">59716c97497eb9694541f7c3d37b1a4d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4ac577c3f91144b22c3a3136922bbfc5</t>
+    <t>59716c97497eb9694541f7c3d37b1a4d</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Question_40</t>
+  </si>
+  <si>
+    <t>4ac577c3f91144b22c3a3136922bbfc5</t>
   </si>
   <si>
     <t xml:space="preserve">In what neighborhood ${ x.do_question('live') }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">23c532d4dfc66f6a220242f0592a0bf4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neighborhood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c45ce20b8cf079160fa41100863eabb4</t>
+    <t>23c532d4dfc66f6a220242f0592a0bf4</t>
+  </si>
+  <si>
+    <t>Neighborhood</t>
+  </si>
+  <si>
+    <t>Question_41</t>
+  </si>
+  <si>
+    <t>c45ce20b8cf079160fa41100863eabb4</t>
   </si>
   <si>
     <t xml:space="preserve">In what county ${ x.do_question('live') }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7580d2f7d1d8f7e1fa103a6fc00c723d</t>
+    <t>docassemble.demo:data/questions/questions.yml</t>
+  </si>
+  <si>
+    <t>Question_52</t>
+  </si>
+  <si>
+    <t>7580d2f7d1d8f7e1fa103a6fc00c723d</t>
   </si>
   <si>
     <t xml:space="preserve">Sorry, you cannot proceed with the interview.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">a0c0859ae985d132f23c6c83a7b39bbc</t>
+    <t>a0c0859ae985d132f23c6c83a7b39bbc</t>
   </si>
   <si>
     <t xml:space="preserve">You can only proceed with the interview if you agree that your
@@ -612,17 +609,17 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e74966ab4fe38e7efbce81de39304c33</t>
+    <t>Question_53</t>
+  </si>
+  <si>
+    <t>e74966ab4fe38e7efbce81de39304c33</t>
   </si>
   <si>
     <t xml:space="preserve">Welcome to the **docassemble** demonstration.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">a51ffb3f0548801a4f05f550096c94ff</t>
+    <t>a51ffb3f0548801a4f05f550096c94ff</t>
   </si>
   <si>
     <t xml:space="preserve">The following interview is designed to demonstrate almost all of
@@ -643,33 +640,33 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6cdc95165c8c75eecb22fe05350a659c</t>
+    <t>Question_54</t>
+  </si>
+  <si>
+    <t>6cdc95165c8c75eecb22fe05350a659c</t>
   </si>
   <si>
     <t xml:space="preserve">What language ${ x.do_question('speak') }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">b6120f00c6ea1d53533eab7b595af379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${ language_from_browser() }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2f2f982ea77fac1b9b7af1da782015a8</t>
+    <t>b6120f00c6ea1d53533eab7b595af379</t>
+  </si>
+  <si>
+    <t>${ language_from_browser() }</t>
+  </si>
+  <si>
+    <t>Question_55</t>
+  </si>
+  <si>
+    <t>2f2f982ea77fac1b9b7af1da782015a8</t>
   </si>
   <si>
     <t xml:space="preserve">${ x.do_question('have', capitalize=True) } a support order?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">b75e9722768202db98a304ac23c864c9</t>
+    <t>b75e9722768202db98a304ac23c864c9</t>
   </si>
   <si>
     <t xml:space="preserve">If you aren't sure, look through your papers for a document that
@@ -679,25 +676,25 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3212fda58b961e9134accc0492cdf7b3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What form do you want to prepare?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2917a553741d7cf99c52db3c4f5cfc47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Were you injured?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c94fc2228d16a710f262e7c04c9d9ead</t>
+    <t>Question_58</t>
+  </si>
+  <si>
+    <t>3212fda58b961e9134accc0492cdf7b3</t>
+  </si>
+  <si>
+    <t>What form do you want to prepare?</t>
+  </si>
+  <si>
+    <t>Question_60</t>
+  </si>
+  <si>
+    <t>2917a553741d7cf99c52db3c4f5cfc47</t>
+  </si>
+  <si>
+    <t>Were you injured?</t>
+  </si>
+  <si>
+    <t>c94fc2228d16a710f262e7c04c9d9ead</t>
   </si>
   <si>
     <t xml:space="preserve">An injury can take many forms.  It can be a physical injury or a
@@ -705,26 +702,26 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">a46d9ca8abedab9788e05215ffc3e447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schumann-clip-3.mp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4931cd73814622f24f4a62399c1ddedd</t>
+    <t>a46d9ca8abedab9788e05215ffc3e447</t>
+  </si>
+  <si>
+    <t>schumann-clip-3.mp3</t>
+  </si>
+  <si>
+    <t>Question_61</t>
+  </si>
+  <si>
+    <t>4931cd73814622f24f4a62399c1ddedd</t>
   </si>
   <si>
     <t xml:space="preserve">What is the village idiot's name?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8b912fea845bfcdc8ad8f918e5ee3e38</t>
+    <t>Question_62</t>
+  </si>
+  <si>
+    <t>8b912fea845bfcdc8ad8f918e5ee3e38</t>
   </si>
   <si>
     <t xml:space="preserve">I understand that you live in ${ client.address.city }.
@@ -732,110 +729,110 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49f87f0ff162768012e4dabd7b4a064a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When did your injury take place?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b67e9243035732caa174c95274d54908</t>
+    <t>Question_63</t>
+  </si>
+  <si>
+    <t>49f87f0ff162768012e4dabd7b4a064a</t>
+  </si>
+  <si>
+    <t>When did your injury take place?</t>
+  </si>
+  <si>
+    <t>b67e9243035732caa174c95274d54908</t>
   </si>
   <si>
     <t xml:space="preserve">The current date and time is &lt;span class="mytime" id="today_time"&gt;&lt;/span&gt;.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">7d632cd38791afcd479f2d9a193d0451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Injury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9272e1adccbd10b17794e01e7602e779</t>
+    <t>7d632cd38791afcd479f2d9a193d0451</t>
+  </si>
+  <si>
+    <t>Date of Injury</t>
+  </si>
+  <si>
+    <t>Question_64</t>
+  </si>
+  <si>
+    <t>9272e1adccbd10b17794e01e7602e779</t>
   </si>
   <si>
     <t xml:space="preserve">Why do you think you deserve to win this case?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">99190a0713a56b93ebe5a3247fdeef48</t>
+    <t>99190a0713a56b93ebe5a3247fdeef48</t>
   </si>
   <si>
     <t xml:space="preserve">I should win because . . .
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cdb0898a104bcde83dc14048589499e9</t>
+    <t>Question_69</t>
+  </si>
+  <si>
+    <t>cdb0898a104bcde83dc14048589499e9</t>
   </si>
   <si>
     <t xml:space="preserve">What is ${ x.possessive('home') } like?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">d21eadfa01cb8447f2bebe45589e5097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typeo of home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dee66cb6d1c7a6d0f91e0c1c6a701897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amenities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amenitieso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e83a7c75294a0499a5efd9c22dfd4834</t>
+    <t>d21eadfa01cb8447f2bebe45589e5097</t>
+  </si>
+  <si>
+    <t>Type of home</t>
+  </si>
+  <si>
+    <t>Typeo of home</t>
+  </si>
+  <si>
+    <t>dee66cb6d1c7a6d0f91e0c1c6a701897</t>
+  </si>
+  <si>
+    <t>Amenities</t>
+  </si>
+  <si>
+    <t>Amenitieso</t>
+  </si>
+  <si>
+    <t>e83a7c75294a0499a5efd9c22dfd4834</t>
   </si>
   <si>
     <t xml:space="preserve">How would you describe the general *milieu* of ${ x.possessive('abode') }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19b23d955169baa3c337749b998652b7</t>
+    <t>Question_70</t>
+  </si>
+  <si>
+    <t>19b23d955169baa3c337749b998652b7</t>
   </si>
   <si>
     <t xml:space="preserve">Where ${ x.do_question('live') }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c933d5e06dd37730769324d6300adbcf</t>
+    <t>Question_71</t>
+  </si>
+  <si>
+    <t>c933d5e06dd37730769324d6300adbcf</t>
   </si>
   <si>
     <t xml:space="preserve">Please upload a picture of ${ x.yourself_or_name() }.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">512b9dd2a65648cf88db877f5883a241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A test file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">578508b25dba417245fd067048a63746</t>
+    <t>512b9dd2a65648cf88db877f5883a241</t>
+  </si>
+  <si>
+    <t>A test file</t>
+  </si>
+  <si>
+    <t>Question_72</t>
+  </si>
+  <si>
+    <t>578508b25dba417245fd067048a63746</t>
   </si>
   <si>
     <t xml:space="preserve">% if x.picture.number() &gt; 1:
@@ -846,17 +843,17 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">b134a7d8c1b4492b145ef9ed09c8f1c9</t>
+    <t>b134a7d8c1b4492b145ef9ed09c8f1c9</t>
   </si>
   <si>
     <t xml:space="preserve">${ x.picture }
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45c90501eff0c194a98b542cf423d828</t>
+    <t>Question_73</t>
+  </si>
+  <si>
+    <t>45c90501eff0c194a98b542cf423d828</t>
   </si>
   <si>
     <t xml:space="preserve">On a scale of 1 to 10, how much hatred do you harbor toward
@@ -864,43 +861,43 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7add3a65c9117b233d177b2388578411</t>
+    <t>Question_74</t>
+  </si>
+  <si>
+    <t>286d8793f1c40b1eff281b82bab6922d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example, LLP [BR] 123 Main Street, Suite 1500 [BR] Philadelphia, PA 19102
+</t>
+  </si>
+  <si>
+    <t>7add3a65c9117b233d177b2388578411</t>
   </si>
   <si>
     <t xml:space="preserve">${ client } [BR] ${ today() } [BR] Page [PAGENUM]
 </t>
   </si>
   <si>
-    <t xml:space="preserve">286d8793f1c40b1eff281b82bab6922d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example, LLP [BR] 123 Main Street, Suite 1500 [BR] Philadelphia, PA 19102
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c3ac69891e76023ff978657f753bb014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advice Letter for ${ client }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e53694b4536cc10a20e69043fab2e2e2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advice_letter_${ space_to_underscore(client) }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3bf9f059a0af0a2d20988251e5b7e99a</t>
+    <t>c3ac69891e76023ff978657f753bb014</t>
+  </si>
+  <si>
+    <t>Advice Letter for ${ client }</t>
+  </si>
+  <si>
+    <t>e53694b4536cc10a20e69043fab2e2e2</t>
+  </si>
+  <si>
+    <t>Advice_letter_${ space_to_underscore(client) }</t>
+  </si>
+  <si>
+    <t>3bf9f059a0af0a2d20988251e5b7e99a</t>
   </si>
   <si>
     <t xml:space="preserve">This is a *very* helpful advice letter.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">d90821d41493bce3b352bf64de4a8f9a</t>
+    <t>d90821d41493bce3b352bf64de4a8f9a</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -983,25 +980,25 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">f46b59c8e796c5bcd1a27ab115c3b6c2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[HYPHEN] [PAGENUM] [HYPHEN]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b7c20c32b66c833d6c571baccbb2fe1b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${ pleading.title }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2eb91485abe132c17270f10053a1b7be</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${ space_to_underscore(pleading.title) }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fca264812e93e938525d27925036e891</t>
+    <t>f46b59c8e796c5bcd1a27ab115c3b6c2</t>
+  </si>
+  <si>
+    <t>[HYPHEN] [PAGENUM] [HYPHEN]</t>
+  </si>
+  <si>
+    <t>b7c20c32b66c833d6c571baccbb2fe1b</t>
+  </si>
+  <si>
+    <t>${ pleading.title }</t>
+  </si>
+  <si>
+    <t>2eb91485abe132c17270f10053a1b7be</t>
+  </si>
+  <si>
+    <t>${ space_to_underscore(pleading.title) }</t>
+  </si>
+  <si>
+    <t>fca264812e93e938525d27925036e891</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%def name="describe_as_adorable(person)"&gt; \
@@ -1067,7 +1064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">3b02aa893ec2053753a1074c7073d20b</t>
+    <t>3b02aa893ec2053753a1074c7073d20b</t>
   </si>
   <si>
     <t xml:space="preserve">% if client_has_standing:
@@ -1078,7 +1075,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">3a336567cf92a4a03ef6596469857104</t>
+    <t>3a336567cf92a4a03ef6596469857104</t>
   </si>
   <si>
     <t xml:space="preserve">Here is an advice letter and a pleading you can file.
@@ -1088,7 +1085,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">55f60db1d9472fec13c085cfaea16cde</t>
+    <t>55f60db1d9472fec13c085cfaea16cde</t>
   </si>
   <si>
     <t xml:space="preserve">This is the end of the interview, ${ client }.  You can exit or
@@ -1097,74 +1094,74 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8496bee81c000cfc2b8ff2b5bfb6e984</t>
+    <t>Question_77</t>
+  </si>
+  <si>
+    <t>8496bee81c000cfc2b8ff2b5bfb6e984</t>
   </si>
   <si>
     <t xml:space="preserve">How much ${ x.do_question("make") } from ${ i }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">b2f40690858b404ed10e62bdf422c704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">522492cf50e49987e45c671faf44f279</t>
+    <t>b2f40690858b404ed10e62bdf422c704</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Question_78</t>
+  </si>
+  <si>
+    <t>522492cf50e49987e45c671faf44f279</t>
   </si>
   <si>
     <t xml:space="preserve">How much ${ x.do_question("make") } from employment?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">5c66a28405cc96f0286a3f23e93daf58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employment Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41a0b6fdad27f601f564c140b899c8a6</t>
+    <t>5c66a28405cc96f0286a3f23e93daf58</t>
+  </si>
+  <si>
+    <t>Employment Income</t>
+  </si>
+  <si>
+    <t>Question_79</t>
+  </si>
+  <si>
+    <t>41a0b6fdad27f601f564c140b899c8a6</t>
   </si>
   <si>
     <t xml:space="preserve">How much ${ x.do_question("make") } from self-employment?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">e89d20ef974c2d52d5430acca91680da</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self-employment Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7c04bf30a1166e7bd9f29784a830fc28</t>
+    <t>e89d20ef974c2d52d5430acca91680da</t>
+  </si>
+  <si>
+    <t>Self-employment Income</t>
+  </si>
+  <si>
+    <t>Question_80</t>
+  </si>
+  <si>
+    <t>7c04bf30a1166e7bd9f29784a830fc28</t>
   </si>
   <si>
     <t xml:space="preserve">How much ${ x.do_question("make") } from SSI?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">c36f1da11776ecbbfbca81ed34219df5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSI Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f1fd739929513444206abd52a4248db0</t>
+    <t>c36f1da11776ecbbfbca81ed34219df5</t>
+  </si>
+  <si>
+    <t>SSI Income</t>
+  </si>
+  <si>
+    <t>Question_81</t>
+  </si>
+  <si>
+    <t>f1fd739929513444206abd52a4248db0</t>
   </si>
   <si>
     <t xml:space="preserve">How much ${ x.do_question("make") } from cash assistance 
@@ -1172,19 +1169,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">9e25b9fe793b17c3139a5a2f9f670e48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANF Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANF Incomeo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">686c0e8f8d5a69526ac103b9f9358c7a</t>
+    <t>9e25b9fe793b17c3139a5a2f9f670e48</t>
+  </si>
+  <si>
+    <t>TANF Income</t>
+  </si>
+  <si>
+    <t>TANF Incomeo</t>
+  </si>
+  <si>
+    <t>Question_82</t>
+  </si>
+  <si>
+    <t>686c0e8f8d5a69526ac103b9f9358c7a</t>
   </si>
   <si>
     <t xml:space="preserve">How much ${ x.do_question("have") } in 
@@ -1192,10 +1189,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">198d79a01770fd3927f91a521c63c184</t>
+    <t>Question_83</t>
+  </si>
+  <si>
+    <t>198d79a01770fd3927f91a521c63c184</t>
   </si>
   <si>
     <t xml:space="preserve">How much ${ x.do_question("have") } in 
@@ -1203,16 +1200,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">12c1e14e7cebb571475c4998d71d2c26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount in Checking Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a43555889d3141acaca6e70df5e79bf3</t>
+    <t>12c1e14e7cebb571475c4998d71d2c26</t>
+  </si>
+  <si>
+    <t>Amount in Checking Account</t>
+  </si>
+  <si>
+    <t>Question_84</t>
+  </si>
+  <si>
+    <t>a43555889d3141acaca6e70df5e79bf3</t>
   </si>
   <si>
     <t xml:space="preserve">How much ${ x.do_question("have") } in 
@@ -1220,178 +1217,238 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">7f948ee7bce7563d1c292046d688dc39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount in Savings Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">730e6cf7682d42f05e76c22f9c37eb17</t>
+    <t>7f948ee7bce7563d1c292046d688dc39</t>
+  </si>
+  <si>
+    <t>Amount in Savings Account</t>
+  </si>
+  <si>
+    <t>Question_85</t>
+  </si>
+  <si>
+    <t>730e6cf7682d42f05e76c22f9c37eb17</t>
   </si>
   <si>
     <t xml:space="preserve">How much ${ x.do_question("have") } in stocks and bonds?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">754ef01606bd4fbcd62880e70a4b650f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount in Stocks and Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e21e16a56a1e3f1ba55dfee523a9ad64</t>
+    <t>754ef01606bd4fbcd62880e70a4b650f</t>
+  </si>
+  <si>
+    <t>Amount in Stocks and Bonds</t>
+  </si>
+  <si>
+    <t>Question_86</t>
+  </si>
+  <si>
+    <t>e21e16a56a1e3f1ba55dfee523a9ad64</t>
   </si>
   <si>
     <t xml:space="preserve">${ x.do_question("have", capitalize=True) } income from ${ i }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b341b08b453ac3cbbf1e05f36ca1398c</t>
+    <t>Question_87</t>
+  </si>
+  <si>
+    <t>b341b08b453ac3cbbf1e05f36ca1398c</t>
   </si>
   <si>
     <t xml:space="preserve">What kinds of income ${ x.do_question("have") }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">a3a5ef5ccef664818cd6ba9dc23907f6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employmento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5490c4bdc11a821bb53353c2ce16b000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self-employment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24d51605899fc94c021ddc25d19a2982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30c34aa251dcb7746e27e41450c06787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash assistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash assistanceo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ba2d703e0f0d7d355ac6aba26c696bfb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None of the above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None of the aboveo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question_88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e8fec8fa8690cfe004c521da61dfc461</t>
+    <t>a3a5ef5ccef664818cd6ba9dc23907f6</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>Employmento</t>
+  </si>
+  <si>
+    <t>5490c4bdc11a821bb53353c2ce16b000</t>
+  </si>
+  <si>
+    <t>Self-employment</t>
+  </si>
+  <si>
+    <t>24d51605899fc94c021ddc25d19a2982</t>
+  </si>
+  <si>
+    <t>SSI</t>
+  </si>
+  <si>
+    <t>30c34aa251dcb7746e27e41450c06787</t>
+  </si>
+  <si>
+    <t>Cash assistance</t>
+  </si>
+  <si>
+    <t>Cash assistanceo</t>
+  </si>
+  <si>
+    <t>ba2d703e0f0d7d355ac6aba26c696bfb</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>None of the aboveo</t>
+  </si>
+  <si>
+    <t>Question_88</t>
+  </si>
+  <si>
+    <t>e8fec8fa8690cfe004c521da61dfc461</t>
   </si>
   <si>
     <t xml:space="preserve">${ x.do_question("own", capitalize=True) } any ${ i }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Question_89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d76de95c52440f39e1ccac1b7ca643bc</t>
+    <t>Question_89</t>
+  </si>
+  <si>
+    <t>d76de95c52440f39e1ccac1b7ca643bc</t>
   </si>
   <si>
     <t xml:space="preserve">What kinds of assets ${ x.do_question("own") }?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">a68f2c0645c943bcadd769ffbb940fff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking Accounto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c045569d4606fba34b938214fcb55274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savings Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savings Accounto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3d884164697e6d5843337b006e8cecdc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stocks and Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stocks and Bondso</t>
+    <t>a68f2c0645c943bcadd769ffbb940fff</t>
+  </si>
+  <si>
+    <t>Checking Account</t>
+  </si>
+  <si>
+    <t>Checking Accounto</t>
+  </si>
+  <si>
+    <t>c045569d4606fba34b938214fcb55274</t>
+  </si>
+  <si>
+    <t>Savings Account</t>
+  </si>
+  <si>
+    <t>Savings Accounto</t>
+  </si>
+  <si>
+    <t>3d884164697e6d5843337b006e8cecdc</t>
+  </si>
+  <si>
+    <t>Stocks and Bonds</t>
+  </si>
+  <si>
+    <t>Stocks and Bondso</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>${ x.possessive('gender') }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">?
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Welcomeo to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>**docassemble**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> demonstration.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Youro use of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>this system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> does not mean that you have a lawyer.  Do
+you understand this?
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Courier New"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1403,7 +1460,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1411,94 +1468,348 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="H14" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="90.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="90.7109375" customWidth="1"/>
+    <col min="8" max="8" width="90.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1520,18 +1831,18 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1546,18 +1857,18 @@
       <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="180" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1569,21 +1880,21 @@
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1595,21 +1906,21 @@
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1624,18 +1935,18 @@
       <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1647,21 +1958,21 @@
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1676,18 +1987,18 @@
       <c r="G7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1699,21 +2010,21 @@
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1728,18 +2039,18 @@
       <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1751,21 +2062,21 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1777,21 +2088,21 @@
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1806,18 +2117,18 @@
       <c r="G12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1829,21 +2140,21 @@
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1855,21 +2166,21 @@
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1881,21 +2192,21 @@
       <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1907,21 +2218,21 @@
       <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1933,21 +2244,21 @@
       <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1959,21 +2270,21 @@
       <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1985,21 +2296,21 @@
       <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2011,21 +2322,21 @@
       <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2037,229 +2348,229 @@
       <c r="F21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="2" t="n">
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="D26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="4" t="s">
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="4" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="C30" s="2">
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2274,798 +2585,798 @@
       <c r="G30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="2" t="n">
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="2">
         <v>6</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="2" t="n">
+      <c r="D48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="2">
         <v>1</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="2" t="n">
+      <c r="D50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="2">
         <v>1</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="2" t="n">
+      <c r="D52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="2">
         <v>1</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="2" t="n">
+      <c r="D55" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="2">
         <v>1</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="2" t="n">
+      <c r="D57" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="2">
         <v>1</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="5" t="s">
+      <c r="D59" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H60" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C61" s="2" t="n">
+      <c r="C61" s="2">
         <v>0</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -3077,21 +3388,21 @@
       <c r="F61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="H61" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="135" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C62" s="2" t="n">
+      <c r="C62" s="2">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -3103,21 +3414,21 @@
       <c r="F62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="H62" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="2" t="n">
+      <c r="C63" s="2">
         <v>0</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -3129,21 +3440,21 @@
       <c r="F63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H63" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="285" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H63" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="285" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="2" t="n">
+      <c r="C64" s="2">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -3155,21 +3466,21 @@
       <c r="F64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H64" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C65" s="2" t="n">
+      <c r="C65" s="2">
         <v>0</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -3181,21 +3492,21 @@
       <c r="F65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C66" s="2" t="n">
+      <c r="C66" s="2">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -3210,18 +3521,18 @@
       <c r="G66" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C67" s="2" t="n">
+      <c r="C67" s="2">
         <v>0</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -3233,21 +3544,21 @@
       <c r="F67" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="H67" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C68" s="2" t="n">
+      <c r="C68" s="2">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -3259,21 +3570,21 @@
       <c r="F68" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="H68" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C69" s="2" t="n">
+      <c r="C69" s="2">
         <v>0</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -3288,18 +3599,18 @@
       <c r="G69" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C70" s="2" t="n">
+      <c r="C70" s="2">
         <v>0</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -3314,18 +3625,18 @@
       <c r="G70" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C71" s="2" t="n">
+      <c r="C71" s="2">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -3337,21 +3648,21 @@
       <c r="F71" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="H71" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C72" s="2" t="n">
+      <c r="C72" s="2">
         <v>2</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -3366,18 +3677,18 @@
       <c r="G72" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C73" s="2" t="n">
+      <c r="C73" s="2">
         <v>0</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -3389,21 +3700,21 @@
       <c r="F73" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="H73" s="6" t="s">
+      <c r="H73" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C74" s="2" t="n">
+      <c r="C74" s="2">
         <v>0</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -3415,21 +3726,21 @@
       <c r="F74" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="H74" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C75" s="2" t="n">
+      <c r="C75" s="2">
         <v>0</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -3444,18 +3755,18 @@
       <c r="G75" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H75" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C76" s="2" t="n">
+      <c r="C76" s="2">
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -3467,21 +3778,21 @@
       <c r="F76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="H76" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C77" s="2" t="n">
+      <c r="C77" s="2">
         <v>2</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -3496,18 +3807,18 @@
       <c r="G77" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H77" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C78" s="2" t="n">
+      <c r="C78" s="2">
         <v>0</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -3519,21 +3830,21 @@
       <c r="F78" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="H78" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C79" s="2" t="n">
+      <c r="C79" s="2">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -3545,21 +3856,21 @@
       <c r="F79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H79" s="6" t="s">
+      <c r="H79" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C80" s="2" t="n">
+      <c r="C80" s="2">
         <v>0</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -3571,21 +3882,21 @@
       <c r="F80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="H80" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C81" s="2" t="n">
+      <c r="C81" s="2">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -3600,18 +3911,18 @@
       <c r="G81" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H81" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C82" s="2" t="n">
+      <c r="C82" s="2">
         <v>2</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -3626,18 +3937,18 @@
       <c r="G82" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H82" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C83" s="2" t="n">
+      <c r="C83" s="2">
         <v>3</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -3649,21 +3960,21 @@
       <c r="F83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="H83" s="6" t="s">
+      <c r="H83" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C84" s="2" t="n">
+      <c r="C84" s="2">
         <v>0</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -3675,21 +3986,21 @@
       <c r="F84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="H84" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C85" s="2" t="n">
+      <c r="C85" s="2">
         <v>0</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -3701,21 +4012,21 @@
       <c r="F85" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G85" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="H85" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C86" s="2" t="n">
+      <c r="C86" s="2">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -3730,18 +4041,18 @@
       <c r="G86" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C87" s="2" t="n">
+      <c r="C87" s="2">
         <v>0</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -3753,21 +4064,21 @@
       <c r="F87" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G87" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H87" s="6" t="s">
+      <c r="H87" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C88" s="2" t="n">
+      <c r="C88" s="2">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -3779,21 +4090,21 @@
       <c r="F88" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="H88" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C89" s="2" t="n">
+      <c r="C89" s="2">
         <v>0</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -3805,21 +4116,21 @@
       <c r="F89" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="G89" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="H89" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C90" s="2" t="n">
+      <c r="C90" s="2">
         <v>0</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -3831,21 +4142,21 @@
       <c r="F90" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G90" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="H90" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C91" s="2" t="n">
+      <c r="C91" s="2">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -3857,21 +4168,21 @@
       <c r="F91" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G91" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="H91" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C92" s="2" t="n">
+      <c r="C92" s="2">
         <v>2</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -3886,18 +4197,18 @@
       <c r="G92" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="H92" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C93" s="2" t="n">
+      <c r="C93" s="2">
         <v>3</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -3912,18 +4223,18 @@
       <c r="G93" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="H93" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C94" s="2" t="n">
+      <c r="C94" s="2">
         <v>4</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -3935,21 +4246,21 @@
       <c r="F94" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G94" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H94" s="6" t="s">
+      <c r="H94" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="1380" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C95" s="2" t="n">
+      <c r="C95" s="2">
         <v>5</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -3961,21 +4272,21 @@
       <c r="F95" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="H95" s="6" t="s">
+      <c r="H95" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C96" s="2" t="n">
+      <c r="C96" s="2">
         <v>6</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -3990,18 +4301,18 @@
       <c r="G96" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="H96" s="4" t="s">
+      <c r="H96" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C97" s="2" t="n">
+      <c r="C97" s="2">
         <v>7</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -4016,18 +4327,18 @@
       <c r="G97" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="H97" s="4" t="s">
+      <c r="H97" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C98" s="2" t="n">
+      <c r="C98" s="2">
         <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -4042,18 +4353,18 @@
       <c r="G98" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="H98" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="1125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C99" s="2" t="n">
+      <c r="C99" s="2">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -4065,21 +4376,21 @@
       <c r="F99" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="H99" s="6" t="s">
+      <c r="H99" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C100" s="2" t="n">
+      <c r="C100" s="2">
         <v>10</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -4091,21 +4402,21 @@
       <c r="F100" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="G100" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="H100" s="6" t="s">
+      <c r="H100" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C101" s="2" t="n">
+      <c r="C101" s="2">
         <v>11</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -4117,21 +4428,21 @@
       <c r="F101" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G101" s="5" t="s">
+      <c r="G101" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="H101" s="6" t="s">
+      <c r="H101" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C102" s="2" t="n">
+      <c r="C102" s="2">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -4143,21 +4454,21 @@
       <c r="F102" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G102" s="5" t="s">
+      <c r="G102" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H102" s="6" t="s">
+      <c r="H102" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C103" s="2" t="n">
+      <c r="C103" s="2">
         <v>0</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -4169,21 +4480,21 @@
       <c r="F103" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="G103" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="H103" s="6" t="s">
+      <c r="H103" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C104" s="2" t="n">
+      <c r="C104" s="2">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -4198,18 +4509,18 @@
       <c r="G104" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H104" s="4" t="s">
+      <c r="H104" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C105" s="2" t="n">
+      <c r="C105" s="2">
         <v>0</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -4221,21 +4532,21 @@
       <c r="F105" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G105" s="5" t="s">
+      <c r="G105" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="H105" s="6" t="s">
+      <c r="H105" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C106" s="2" t="n">
+      <c r="C106" s="2">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -4250,18 +4561,18 @@
       <c r="G106" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="H106" s="4" t="s">
+      <c r="H106" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C107" s="2" t="n">
+      <c r="C107" s="2">
         <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -4273,21 +4584,21 @@
       <c r="F107" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G107" s="5" t="s">
+      <c r="G107" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="H107" s="6" t="s">
+      <c r="H107" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C108" s="2" t="n">
+      <c r="C108" s="2">
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -4302,18 +4613,18 @@
       <c r="G108" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H108" s="4" t="s">
+      <c r="H108" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C109" s="2" t="n">
+      <c r="C109" s="2">
         <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -4325,21 +4636,21 @@
       <c r="F109" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G109" s="5" t="s">
+      <c r="G109" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="H109" s="6" t="s">
+      <c r="H109" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C110" s="2" t="n">
+      <c r="C110" s="2">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -4354,18 +4665,18 @@
       <c r="G110" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="H110" s="4" t="s">
+      <c r="H110" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C111" s="2" t="n">
+      <c r="C111" s="2">
         <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -4377,21 +4688,21 @@
       <c r="F111" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G111" s="5" t="s">
+      <c r="G111" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="H111" s="6" t="s">
+      <c r="H111" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C112" s="2" t="n">
+      <c r="C112" s="2">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -4406,18 +4717,18 @@
       <c r="G112" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="H112" s="4" t="s">
+      <c r="H112" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C113" s="2" t="n">
+      <c r="C113" s="2">
         <v>0</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -4429,21 +4740,21 @@
       <c r="F113" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G113" s="5" t="s">
+      <c r="G113" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="H113" s="6" t="s">
+      <c r="H113" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C114" s="2" t="n">
+      <c r="C114" s="2">
         <v>0</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -4455,21 +4766,21 @@
       <c r="F114" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G114" s="5" t="s">
+      <c r="G114" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="H114" s="6" t="s">
+      <c r="H114" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C115" s="2" t="n">
+      <c r="C115" s="2">
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -4484,18 +4795,18 @@
       <c r="G115" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="H115" s="4" t="s">
+      <c r="H115" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C116" s="2" t="n">
+      <c r="C116" s="2">
         <v>0</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -4507,21 +4818,21 @@
       <c r="F116" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G116" s="5" t="s">
+      <c r="G116" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="H116" s="6" t="s">
+      <c r="H116" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C117" s="2" t="n">
+      <c r="C117" s="2">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -4536,18 +4847,18 @@
       <c r="G117" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="H117" s="4" t="s">
+      <c r="H117" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C118" s="2" t="n">
+      <c r="C118" s="2">
         <v>0</v>
       </c>
       <c r="D118" s="2" t="s">
@@ -4559,21 +4870,21 @@
       <c r="F118" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G118" s="5" t="s">
+      <c r="G118" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="H118" s="6" t="s">
+      <c r="H118" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C119" s="2" t="n">
+      <c r="C119" s="2">
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -4588,18 +4899,18 @@
       <c r="G119" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="H119" s="4" t="s">
+      <c r="H119" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C120" s="2" t="n">
+      <c r="C120" s="2">
         <v>0</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -4611,21 +4922,21 @@
       <c r="F120" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G120" s="5" t="s">
+      <c r="G120" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="H120" s="6" t="s">
+      <c r="H120" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C121" s="2" t="n">
+      <c r="C121" s="2">
         <v>0</v>
       </c>
       <c r="D121" s="2" t="s">
@@ -4637,21 +4948,21 @@
       <c r="F121" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G121" s="5" t="s">
+      <c r="G121" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="H121" s="6" t="s">
+      <c r="H121" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C122" s="2" t="n">
+      <c r="C122" s="2">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
@@ -4666,18 +4977,18 @@
       <c r="G122" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="H122" s="4" t="s">
+      <c r="H122" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C123" s="2" t="n">
+      <c r="C123" s="2">
         <v>2</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -4692,18 +5003,18 @@
       <c r="G123" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="H123" s="4" t="s">
+      <c r="H123" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C124" s="2" t="n">
+      <c r="C124" s="2">
         <v>3</v>
       </c>
       <c r="D124" s="2" t="s">
@@ -4718,18 +5029,18 @@
       <c r="G124" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="H124" s="4" t="s">
+      <c r="H124" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C125" s="2" t="n">
+      <c r="C125" s="2">
         <v>4</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -4744,18 +5055,18 @@
       <c r="G125" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="H125" s="4" t="s">
+      <c r="H125" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C126" s="2" t="n">
+      <c r="C126" s="2">
         <v>5</v>
       </c>
       <c r="D126" s="2" t="s">
@@ -4770,18 +5081,18 @@
       <c r="G126" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="H126" s="4" t="s">
+      <c r="H126" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C127" s="2" t="n">
+      <c r="C127" s="2">
         <v>0</v>
       </c>
       <c r="D127" s="2" t="s">
@@ -4793,21 +5104,21 @@
       <c r="F127" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G127" s="5" t="s">
+      <c r="G127" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="H127" s="6" t="s">
+      <c r="H127" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C128" s="2" t="n">
+      <c r="C128" s="2">
         <v>0</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -4819,21 +5130,21 @@
       <c r="F128" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G128" s="5" t="s">
+      <c r="G128" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="H128" s="6" t="s">
+      <c r="H128" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C129" s="2" t="n">
+      <c r="C129" s="2">
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -4848,18 +5159,18 @@
       <c r="G129" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="H129" s="4" t="s">
+      <c r="H129" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C130" s="2" t="n">
+      <c r="C130" s="2">
         <v>2</v>
       </c>
       <c r="D130" s="2" t="s">
@@ -4874,18 +5185,18 @@
       <c r="G130" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="H130" s="4" t="s">
+      <c r="H130" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C131" s="2" t="n">
+      <c r="C131" s="2">
         <v>3</v>
       </c>
       <c r="D131" s="2" t="s">
@@ -4900,19 +5211,12 @@
       <c r="G131" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="H131" s="4" t="s">
+      <c r="H131" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>